--- a/biology/Botanique/Bain_des_Nymphes/Bain_des_Nymphes.xlsx
+++ b/biology/Botanique/Bain_des_Nymphes/Bain_des_Nymphes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bain des Nymphes est un bassin des jardins de Versailles.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bain des Nymphes se trouve au Nord-Est du parc, dans l'axe de l'allée d'Eau, entre cette dernière et le Bassin de la Pyramide.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fontaine épouse la déclivité du terrain. 
 Le mur de soutènement est placé au plus près du bassin de la Pyramide. Quatre termes ornés de masques forment pilastres sur ce mur. Une nappe d'eau s'échappe de la partie supérieure du mur et fait un rideau sur la nudité des onze nymphes qui se déploient sur la partie centrale du bas relief en métal, long de 6,15 m et haut de 2,25 m, et qui donnent leur nom à la fontaine.
@@ -579,9 +595,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1670 et 1671 six sculpteurs participent à la décoration. Parmi eux, François Girardon est chargé du bas relief principal, en plomb doré représentant des nymphes au bain[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1670 et 1671 six sculpteurs participent à la décoration. Parmi eux, François Girardon est chargé du bas relief principal, en plomb doré représentant des nymphes au bain.
 </t>
         </is>
       </c>
